--- a/黑社会/新建 Microsoft Excel 工作表.xlsx
+++ b/黑社会/新建 Microsoft Excel 工作表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAE3C7-A49B-4A23-B58D-59E1E3736F4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14805" windowHeight="7980"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,6 +58,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>逃生舱分为数个区域。
+在逃生舱投放前，移民船会根据扫描到的地表信息携带对应的相关设备和物资。
+仓库储存供5000人使用30天的食物、水，5000人份的日常用品。
+配备小型核反应堆2台，净水厂，机床三台，3D打印机1台，化工厂1间，垃圾处理场一间，医疗站一间。
+各类物资90吨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灵能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位于F9012-9491-M78星域，编号A005-01行星。幸存者为纪念移民船，将行星起名为达摩。
+遭遇异虫舰队后，总计10W人分别进入20个逃生舱，在降落过程中，损失了6个，损坏1个。丢失工厂、物资5个。剩余14个逃生舱，共计4W人安全抵达地面。随后因为疾病，原住生物等原因，死亡1万七千人。在据点稳定后仅剩2万2千幸存者。
+战斗结束后，移民船达摩迫降至星球表面，22°13'49''S,44°53'01''E,幸存者400人。
+与此同时，护卫舰伴随卫星与空间站开始绕星球运动，地面人员每天可接受信号6小时，由于电子云的干扰，信号极不稳定。
+达摩是A005星系第1颗行星，距离恒星5.9光分，轨道倾角3.7°。，每12太阳时自转一周。178天公转一圈。直径3008千米，陆地面积41%，海洋面积59%。星球上空45~60公里盘踞着大量电子云。
+达摩的并没有发展出能够使用道具的智慧生命，但本地数种生物觉醒了灵能。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>启动条件：
 1.舰队遇敌交战且无法维持，移民船生存系统无法维持。
 2.能够确保消灭大部分敌人。
@@ -64,7 +86,6 @@
 4.残存的敌人会降落在行星地面生存。
 5.剩余武装可以确保幸存者的生存。
 6.逃生舱，应急工厂，武器，物资，留存率足够，行星太空站未被破坏。
-7.静置舱数量足够。
 行动：
 1.舰队武装力量进入决死战斗，确保尽可能的歼灭敌人。在大部分歼灭敌人，确保行星太空站安全的情况下发射太空站及护卫战舰，在确保安全的情况下视情况投放卫星。
 2.筛选出10W人进入逃生舱，伴随各种工厂与物资发设至行星地表。将移民船所有储藏物资投送至星球表面。
@@ -72,32 +93,11 @@
 4.未登上逃生舱及静置舱的居民，将在战斗结束后，与移民船一起迫降在行星地表，祝你们好运。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
-  <si>
-    <t>逃生舱分为数个区域。
-在逃生舱投放前，移民船会根据扫描到的地表信息携带对应的相关设备和物资。
-仓库储存供5000人使用30天的食物、水，5000人份的日常用品。
-配备小型核反应堆2台，净水厂，机床三台，3D打印机1台，化工厂1间，垃圾处理场一间，医疗站一间。
-各类物资90吨。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灵能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>位于F9012-9491-M78星域，编号A005-01行星。幸存者为纪念移民船，将行星起名为达摩。
-遭遇异虫舰队后，总计10W人分别进入20个逃生舱，在降落过程中，损失了6个，损坏1个。丢失工厂、物资5个。剩余14个逃生舱，共计4W人安全抵达地面。随后因为疾病，原住生物等原因，死亡1万七千人。在据点稳定后仅剩2万2千幸存者。
-战斗结束后，移民船达摩迫降至星球表面，22°13'49''S,44°53'01''E,幸存者400人。
-与此同时，护卫舰伴随卫星与空间站开始绕星球运动，地面人员每天可接受信号6小时，由于电子云的干扰，信号极不稳定。
-达摩是A005星系第1颗行星，距离恒星5.9光分，轨道倾角3.7°。，每12太阳时自转一周。178天公转一圈。直径3008千米，陆地面积41%，海洋面积59%。星球上空45~60公里盘踞着大量电子云。
-达摩的并没有发展出能够使用道具的智慧生命，但本地数种生物觉醒了灵能。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -185,6 +185,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -232,7 +235,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -265,9 +268,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -300,6 +320,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -475,11 +512,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -504,12 +541,12 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="216" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:2" ht="202.5" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
@@ -525,7 +562,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="81" x14ac:dyDescent="0.15">
@@ -533,12 +570,12 @@
         <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.15">
       <c r="A7" s="3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -549,7 +586,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -562,7 +599,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/黑社会/新建 Microsoft Excel 工作表.xlsx
+++ b/黑社会/新建 Microsoft Excel 工作表.xlsx
@@ -1,27 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CFAE3C7-A49B-4A23-B58D-59E1E3736F4E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>背景</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,15 +38,6 @@
   <si>
     <t>达摩（星球）</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>公元3333年，AE86号地球移民船,代号达摩。途径F9012-9491-M78星域，编号A005-01行星附近时时遭遇异虫舰队。
-交战后移民舰队被击毁，启动CP-5-2应急预案。发送逃生舱将总计10W人送至行星地表。
-异虫部队虽大部分被击杀，但仍有数量不菲的残余部队活了下来。失去了利维坦的庇护，异虫也被迫降落至A005-01行星，建立新的主巢。</t>
-  </si>
-  <si>
-    <t>编号A005-01号移民船，由CAS设计并制造，于2600年发射，代号达摩。
-初始携带2,0010,3497人。配有5支护航编队，每支护航编队由1艘太阿级战列舰带头，总计10艘战舰组成。</t>
   </si>
   <si>
     <t>逃生舱</t>
@@ -70,35 +56,179 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>亚空间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人类的第一个觉醒的灵能者是在公园2555年，编号A002-02号太空移民船公民陈大力。灵能等级4级，强化系。
+公元2625年，人类找到了稳定觉醒灵能的办法。
+公元2798年，人类找到了测定灵能潜力和引导灵能觉醒方向的办法。
+灵能的能力从操纵肉体到操纵心灵，从控制实物到控制火焰不一而足，数百年见人类觉醒的各种能力更是千奇百怪。但这股力量并非没有代价，甚至伴随着极大的危险。每当灵能者使用灵能时，他们的灵魂将在亚空间中形成一个投影，对于亚空间中游移的无智慧生命、野兽或恶魔来说，灵能者的灵魂投影就如同熊熊燃烧的火焰。他们会疯狂的扑向这团火焰将其占为己有。当灵魂投影被亚空间生物吞噬时，他就将成为从亚空间到物理世界的大门，并被夺去灵魂与身体，成为一具傀儡。这个过程被成为混沌侵蚀。
+人类历史上第一次混沌侵蚀发生在公园2608年，编号A001-01号移民船公民艾斯比在灵能研究所进行测量时被亚空间野兽吞噬，肉体也化为了野兽，后这个形态的野兽被编号为BEAST-000。但是第一次发生时研究人员并无法对这个现象做出解释。
+直到公元2998年，编号C001-02号移民船公民，9级灵能者甘道夫，第一次感知到了亚空间、亚空间的灵魂投影，及亚空间中盘踞的可怖之物。
+接下来数百年里，人类慢慢找到了与亚空间生物对抗的办法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚空间是指潜伏在真实空间之下的某个混沌维度。那些生而天赋异禀，被称为灵能者的人类能从亚空间中吸取力量，并将其塑造成各种形式的超自然现象。然而使用这种力量总是伴随着可怕的风险。
+每当灵能者使用灵能时，他们的灵魂在亚空间内明亮地闪耀。亚空间中居住着那些不可言说的存在，野兽，恶魔，或其他什么更糟糕的东西，除此之外还有大量还未诞生理智的混沌生命。他们是饥渴的猎食者，无时无刻不在寻找灵魂的火花。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亚人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最早起的亚人起源于一些整容，一些人移植了人造兽耳，改变自己的外形。在2212年，基因编辑技术基本成熟。使用直接注射的基因药剂就可以改变自己的外形。但由于改造基因会引起人类基因库的污染，这项技术被禁止使用。直到2235年，研制出了不改造人类遗传信息的基因改造手段。这项技术被普遍的应用于外科整形中。
+亚人整容的下一次流行是在2850年，经过统计发现，亚人的基因改造对提升灵能有某种帮助，于是兴起了近乎是全民整容的风潮。但是对于灵能提升的具体功效和作用方式尚不明朗，只能推导出一些经验性的结论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>武装力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号A005-01号移民船，由CAS设计并制造，于2600年发射，代号达摩。
+初始携带2,0010,3497人。配有5支护航编队，每支护航编队由1艘太阿级战列舰带头，总计10艘战舰组成。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>编号A005-01号移民船，达摩，配有5支护航编队，每支护航编队由1艘太阿级战列舰带头，总计10艘战舰组成。
+重火力：
+轻火力：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>位于F9012-9491-M78星域，编号A005-01行星。幸存者为纪念移民船，将行星起名为达摩。
-遭遇异虫舰队后，总计10W人分别进入20个逃生舱，在降落过程中，损失了6个，损坏1个。丢失工厂、物资5个。剩余14个逃生舱，共计4W人安全抵达地面。随后因为疾病，原住生物等原因，死亡1万七千人。在据点稳定后仅剩2万2千幸存者。
-战斗结束后，移民船达摩迫降至星球表面，22°13'49''S,44°53'01''E,幸存者400人。
-与此同时，护卫舰伴随卫星与空间站开始绕星球运动，地面人员每天可接受信号6小时，由于电子云的干扰，信号极不稳定。
 达摩是A005星系第1颗行星，距离恒星5.9光分，轨道倾角3.7°。，每12太阳时自转一周。178天公转一圈。直径3008千米，陆地面积41%，海洋面积59%。星球上空45~60公里盘踞着大量电子云。
 达摩的并没有发展出能够使用道具的智慧生命，但本地数种生物觉醒了灵能。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>启动条件：
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>启动条件：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 1.舰队遇敌交战且无法维持，移民船生存系统无法维持。
 2.能够确保消灭大部分敌人。
 3.附近有类地行星，且人类可以直接在地表存活。
 4.残存的敌人会降落在行星地面生存。
 5.剩余武装可以确保幸存者的生存。
 6.逃生舱，应急工厂，武器，物资，留存率足够，行星太空站未被破坏。
-行动：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>行动：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 1.舰队武装力量进入决死战斗，确保尽可能的歼灭敌人。在大部分歼灭敌人，确保行星太空站安全的情况下发射太空站及护卫战舰，在确保安全的情况下视情况投放卫星。
 2.筛选出10W人进入逃生舱，伴随各种工厂与物资发设至行星地表。将移民船所有储藏物资投送至星球表面。
 3.剩余居民，根据静置舱可用数量，筛选出对应人数进入静置舱并进入休眠状态。在确保安全的情况下将静置舱向周围的宇宙空间投射。
-4.未登上逃生舱及静置舱的居民，将在战斗结束后，与移民船一起迫降在行星地表，祝你们好运。</t>
+4.未登上逃生舱及静置舱的居民，将在战斗结束后，与移民船一起迫降在行星地表，祝你们好运。
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>实施情况：</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+公元3333年，AE86号地球移民船,代号达摩。途径F9012-9491-M78星域，编号A005-01行星附近时时遭遇异虫舰队。
+交战后启动CP-5-2应急预案。发送逃生舱将总计10W人送至行星地表。移民舰队被击毁，迫降于地表。
+异虫部队虽大部分被击杀，但仍有数量不菲的残余部队活了下来。失去了利维坦的庇护，异虫也被迫降落至A005-01行星，建立新的主巢。
+总计10W人分别进入20个逃生舱，在降落过程中，损失了6个，损坏1个。丢失工厂、物资5个。剩余14个逃生舱，共计4W人安全抵达地面。随后因为疾病，原住生物等原因，死亡1万七千人。在据点稳定后仅剩2万2千幸存者。
+战斗结束后，移民船达摩迫降至星球表面，22°13'49''S,44°53'01''E,幸存者400人。
+与此同时，护卫舰伴随卫星与空间站开始绕星球运动，地面人员每天有6小时可接受信号，但由于电子云的干扰，信号极不稳定。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>背景</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>逃生舱在达摩降落40年后。
+各个移民地据点与周围的土著生物有基本划清领地范围。不会再爆发大规模的冲突。
+异虫降落点正好位于土著生物老山龟和秃顶龙的势力范围，双方的战斗至今仍未停止，但交战频率越来越低，颇有休养生息来日再战的架势。拜老山龟和秃顶龙所赐，异虫并未在这颗星球上疯狂的蔓延，而是被土著势力堵在一块直径300公里的区域内。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保安公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责维护13号逃生舱降落所在的6号据点周围的安全。
+日常工作是清理警戒区内具有威胁的生物，侦查周围土著生物的活动迹象。
+保卫据据点间来往车队的安全。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通过招募，或其他手段获得的英雄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>战斗模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -122,8 +252,25 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -133,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -164,16 +317,31 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -235,7 +403,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -268,26 +436,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -320,23 +471,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -512,70 +646,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="3" customWidth="1"/>
-    <col min="2" max="2" width="82" style="2" customWidth="1"/>
+    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
+    <col min="2" max="2" width="85.625" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="108" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:2" ht="108" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:2" ht="364.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="202.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
+    <row r="6" spans="1:2" ht="216" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="67.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="94.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="135" x14ac:dyDescent="0.15">
-      <c r="A5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="81" x14ac:dyDescent="0.15">
-      <c r="A6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.15">
-      <c r="A7" s="3" t="s">
-        <v>10</v>
+    <row r="9" spans="1:2" ht="54" x14ac:dyDescent="0.15">
+      <c r="A9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -586,20 +755,43 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="15.625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="89.875" style="6" customWidth="1"/>
+    <col min="3" max="3" width="9.5" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="2"/>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/黑社会/新建 Microsoft Excel 工作表.xlsx
+++ b/黑社会/新建 Microsoft Excel 工作表.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D29DC5B5-6FB4-4B5C-9583-BED481AE724C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>CP-5-2应急预案</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,12 +91,6 @@
   <si>
     <t>编号A005-01号移民船，由CAS设计并制造，于2600年发射，代号达摩。
 初始携带2,0010,3497人。配有5支护航编队，每支护航编队由1艘太阿级战列舰带头，总计10艘战舰组成。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编号A005-01号移民船，达摩，配有5支护航编队，每支护航编队由1艘太阿级战列舰带头，总计10艘战舰组成。
-重火力：
-轻火力：</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -223,11 +218,26 @@
     <t>战斗模式</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>编号A005-01号移民船，达摩，配有5支护航编队，每支护航编队由1艘太阿级战列舰带头，总计10艘战舰组成。
+重火力：真理大炮
+轻火力：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真理大炮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护航舰队装备的最强火力输出，使用强磁场束缚住核爆能量，接着以光束形态发射，当量约为320亿吨。发射总时长约为82秒，其中81.99秒用于启动磁场。
+启动CP-5-2应急预案后，空间站的伴随护卫舰同样装配了小型真理大炮，当量为60W吨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,7 +413,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -436,9 +446,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -471,6 +498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -646,11 +690,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B12"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -672,7 +716,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -688,7 +732,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="84" customHeight="1" x14ac:dyDescent="0.15">
@@ -728,23 +772,31 @@
         <v>13</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="67.5" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>21</v>
+    </row>
+    <row r="12" spans="1:2" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -755,11 +807,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -772,16 +824,16 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A1" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="B1" s="4" t="s">
-        <v>23</v>
       </c>
       <c r="C1" s="2"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A2" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -791,7 +843,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
